--- a/input/model.xlsx
+++ b/input/model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Reviews\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0DFB1-E21A-4EC0-B9F4-4B8D98FBC229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84D7C8C-599C-4316-B307-AA82BFBBADA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{3718D075-6FEC-B143-9149-35B92ADBF88C}"/>
+    <workbookView xWindow="40680" yWindow="1230" windowWidth="26415" windowHeight="12510" xr2:uid="{3718D075-6FEC-B143-9149-35B92ADBF88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="2" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>wifi</t>
   </si>
   <si>
-    <t>Вай фай</t>
-  </si>
-  <si>
     <t>функция</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Не работает</t>
+  </si>
+  <si>
+    <t>вай фай</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -708,42 +708,42 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/input/model.xlsx
+++ b/input/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Reviews\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisa/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84D7C8C-599C-4316-B307-AA82BFBBADA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3971B9B-A462-B047-83E4-D0D1DF1158EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40680" yWindow="1230" windowWidth="26415" windowHeight="12510" xr2:uid="{3718D075-6FEC-B143-9149-35B92ADBF88C}"/>
+    <workbookView xWindow="4960" yWindow="500" windowWidth="23840" windowHeight="16200" xr2:uid="{3718D075-6FEC-B143-9149-35B92ADBF88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>финансовые условия</t>
   </si>
@@ -174,10 +174,160 @@
     <t>медленно</t>
   </si>
   <si>
-    <t>Не работает</t>
-  </si>
-  <si>
     <t>вай фай</t>
+  </si>
+  <si>
+    <t>консульт</t>
+  </si>
+  <si>
+    <t>перевод</t>
+  </si>
+  <si>
+    <t>регистр</t>
+  </si>
+  <si>
+    <t>логин</t>
+  </si>
+  <si>
+    <t>звон</t>
+  </si>
+  <si>
+    <t>техпод</t>
+  </si>
+  <si>
+    <t>отнош</t>
+  </si>
+  <si>
+    <t>перезагрузк</t>
+  </si>
+  <si>
+    <t>дизайн</t>
+  </si>
+  <si>
+    <t>интернет</t>
+  </si>
+  <si>
+    <t>погашен</t>
+  </si>
+  <si>
+    <t>не хват</t>
+  </si>
+  <si>
+    <t>ЖКХ</t>
+  </si>
+  <si>
+    <t>погас</t>
+  </si>
+  <si>
+    <t>компетент</t>
+  </si>
+  <si>
+    <t>кэшбэк</t>
+  </si>
+  <si>
+    <t>сотрудник</t>
+  </si>
+  <si>
+    <t>колл центр</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>интерфейс</t>
+  </si>
+  <si>
+    <t>заблок</t>
+  </si>
+  <si>
+    <t>глюч</t>
+  </si>
+  <si>
+    <t>коммун</t>
+  </si>
+  <si>
+    <t>обнов</t>
+  </si>
+  <si>
+    <t>работает</t>
+  </si>
+  <si>
+    <t>сервер</t>
+  </si>
+  <si>
+    <t>чат</t>
+  </si>
+  <si>
+    <t>жкх</t>
+  </si>
+  <si>
+    <t>счетчик</t>
+  </si>
+  <si>
+    <t>запуск</t>
+  </si>
+  <si>
+    <t>запус</t>
+  </si>
+  <si>
+    <t>прилож</t>
+  </si>
+  <si>
+    <t>войт</t>
+  </si>
+  <si>
+    <t>смс</t>
+  </si>
+  <si>
+    <t>пополн</t>
+  </si>
+  <si>
+    <t>проблем</t>
+  </si>
+  <si>
+    <t>загруз</t>
+  </si>
+  <si>
+    <t>откры</t>
+  </si>
+  <si>
+    <t>qr</t>
+  </si>
+  <si>
+    <t>сервис</t>
+  </si>
+  <si>
+    <t>вход</t>
+  </si>
+  <si>
+    <t>тормоз</t>
+  </si>
+  <si>
+    <t>зарег</t>
+  </si>
+  <si>
+    <t>удобн</t>
+  </si>
+  <si>
+    <t>пин</t>
+  </si>
+  <si>
+    <t>слет</t>
+  </si>
+  <si>
+    <t>счет</t>
+  </si>
+  <si>
+    <t>вклад</t>
+  </si>
+  <si>
+    <t>спис</t>
+  </si>
+  <si>
+    <t>парол</t>
+  </si>
+  <si>
+    <t>дораб</t>
   </si>
 </sst>
 </file>
@@ -548,15 +698,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7245830-69A6-4B4B-9D16-C5E179F42659}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -628,6 +778,9 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
@@ -638,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -648,6 +801,9 @@
       <c r="C3" t="s">
         <v>27</v>
       </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
@@ -660,8 +816,14 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -672,78 +834,260 @@
       <c r="F4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1"/>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="1"/>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="1"/>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
       <c r="F7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
       <c r="F9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
       <c r="F11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
       <c r="F12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
       <c r="F13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
       <c r="F14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/input/model.xlsx
+++ b/input/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\PycharmProjects\Reviews\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3971B9B-A462-B047-83E4-D0D1DF1158EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7FE59C-87C7-4047-9701-DBA79F4DB394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="500" windowWidth="23840" windowHeight="16200" xr2:uid="{3718D075-6FEC-B143-9149-35B92ADBF88C}"/>
+    <workbookView xWindow="41865" yWindow="2475" windowWidth="28590" windowHeight="12210" xr2:uid="{3718D075-6FEC-B143-9149-35B92ADBF88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="2" r:id="rId1"/>
@@ -701,12 +701,12 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -791,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -823,11 +823,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
@@ -844,7 +846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -862,7 +864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -877,7 +879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -892,13 +894,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="E8" t="s">
         <v>50</v>
       </c>
@@ -909,7 +909,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -923,7 +923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>60</v>
       </c>
@@ -934,7 +934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>70</v>
       </c>
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>75</v>
       </c>
@@ -950,7 +950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>76</v>
       </c>
@@ -958,7 +958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>81</v>
       </c>
@@ -966,7 +966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>82</v>
       </c>
@@ -974,7 +974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>86</v>
       </c>
@@ -982,7 +982,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>90</v>
       </c>
@@ -990,7 +990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>92</v>
       </c>
@@ -998,7 +998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>91</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>93</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>94</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>95</v>
       </c>
@@ -1030,62 +1030,62 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
         <v>98</v>
       </c>
